--- a/Config/ScriptConfig.xlsx
+++ b/Config/ScriptConfig.xlsx
@@ -65,7 +65,7 @@
     <t>TestURL</t>
   </si>
   <si>
-    <t>https://testlink.renewbuy.com</t>
+    <t>https://partners.renewbuy.com/#/login</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:AMD2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
     <hyperlink ref="F2" r:id="rId5"/>
-    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="G2" r:id="rId6" location="/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
